--- a/Project/doc/info/1St_Project_4조_요구명세서.xlsx
+++ b/Project/doc/info/1St_Project_4조_요구명세서.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,12 +1340,93 @@
 - 공부 종료 시간 (분)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>COMMON02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지(리스트 페이지)로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-REDIRECT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 원하는 수 만큼 리스트를 출력,
+  그 이상은 다음 페이지에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사이드 바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON03-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON03-PRINT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 명언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 랜덤 한 마디 랜덤으로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 랜덤 명언 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사이드 바 형태 출력
+- 리스트 페이지, 상세 페이지, 수정 페이지,
+  작성 페이지, 삭제 페이지, 목표 수정 페이지
+에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이미지를 클릭 시
+  메인 페이지(리스트 페이지)로 이동
+- 리스트 페이지, 상세 페이지, 수정 페이지,
+  작성 페이지, 삭제 페이지, 목표 수정 페이지
+에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0420 add
+고객 협의 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,6 +1524,22 @@
       <color rgb="FF2549FF"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1608,7 +1705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1798,6 +1895,12 @@
     <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1852,7 +1955,43 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1863,9 +2002,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF2549FF"/>
       <color rgb="FFF3EBF9"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFE4D2F2"/>
       <color rgb="FFCFF282"/>
     </mruColors>
@@ -2178,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U26"/>
+  <dimension ref="B3:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2191,7 +2330,7 @@
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.625" style="1" customWidth="1"/>
@@ -2225,10 +2364,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="231" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2246,7 +2385,7 @@
       <c r="H4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="63" t="s">
         <v>137</v>
       </c>
       <c r="K4" s="43" t="s">
@@ -2260,8 +2399,8 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="27" t="s">
         <v>67</v>
       </c>
@@ -2286,8 +2425,8 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2307,8 +2446,8 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2351,146 +2490,141 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="99" x14ac:dyDescent="0.3">
-      <c r="B9" s="71" t="s">
+    <row r="9" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="86"/>
+      <c r="I9" s="85"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="99" x14ac:dyDescent="0.3">
+      <c r="B10" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I10" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K10" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L10" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="62" t="s">
+    <row r="11" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G11" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="12" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="L11" s="1" t="s">
+      <c r="I12" s="12"/>
+      <c r="L12" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="15" t="s">
+    <row r="13" spans="2:18" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:18" ht="99" x14ac:dyDescent="0.3">
-      <c r="B13" s="75" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C14" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>124</v>
@@ -2505,93 +2639,93 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+    <row r="15" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="66" x14ac:dyDescent="0.3">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="18" t="s">
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="2:21" ht="99" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:21" ht="99" x14ac:dyDescent="0.3">
+      <c r="B18" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C18" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I18" s="53" t="s">
         <v>134</v>
@@ -2603,136 +2737,138 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+    <row r="19" spans="2:21" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:21" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="73" t="s">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:21" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C21" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D21" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="L20" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="23"/>
+        <v>128</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="2:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
+      <c r="L21" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="2:21" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63" t="s">
+    <row r="23" spans="2:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="2:21" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C24" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D24" s="39" t="s">
         <v>97</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="K23" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="39" t="s">
-        <v>98</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>66</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="H24" s="54" t="s">
         <v>129</v>
@@ -2745,55 +2881,48 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="65"/>
-      <c r="C25" s="68"/>
+    <row r="25" spans="2:21" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="66"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="F25" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="54"/>
       <c r="K25" s="43" t="s">
         <v>103</v>
       </c>
       <c r="L25" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>69</v>
-      </c>
+    </row>
+    <row r="26" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="67"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>66</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>102</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="K26" s="43" t="s">
         <v>103</v>
@@ -2801,21 +2930,129 @@
       <c r="L26" s="58" t="s">
         <v>131</v>
       </c>
+      <c r="O26" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="K27" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="M28" s="95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="M29" s="95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="92"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="89"/>
+      <c r="M30" s="95" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
+  <mergeCells count="14">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2889,10 +3126,10 @@
       <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -2908,10 +3145,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="46"/>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="79"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
     </row>
@@ -2919,10 +3156,10 @@
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="82"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>

--- a/Project/doc/info/1St_Project_4조_요구명세서.xlsx
+++ b/Project/doc/info/1St_Project_4조_요구명세서.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="171">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1421,12 +1421,70 @@
 고객 협의 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON03-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 버튼을 클릭 시 프로필 수정페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 프로필 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 닉네임
+- 프로필 이미지 파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON04-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON04-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON04-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0421 add
+고객 협의 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1540,6 +1598,22 @@
       <color theme="9" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1705,7 +1779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1901,60 +1975,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1979,20 +1999,98 @@
     <xf numFmtId="49" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2317,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U30"/>
+  <dimension ref="B3:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2364,10 +2462,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="231" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="82" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2399,8 +2497,8 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="27" t="s">
         <v>67</v>
       </c>
@@ -2425,8 +2523,8 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2446,8 +2544,8 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2493,31 +2591,31 @@
     <row r="9" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="85"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="67"/>
       <c r="K9" s="43"/>
       <c r="L9" s="58"/>
-      <c r="M9" s="95" t="s">
+      <c r="M9" s="73" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="99" x14ac:dyDescent="0.3">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -2549,8 +2647,8 @@
       </c>
     </row>
     <row r="11" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="62" t="s">
         <v>34</v>
       </c>
@@ -2567,8 +2665,8 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
@@ -2590,8 +2688,8 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="15" t="s">
         <v>20</v>
       </c>
@@ -2608,10 +2706,10 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="88" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -2640,8 +2738,8 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="18" t="s">
         <v>35</v>
       </c>
@@ -2668,8 +2766,8 @@
       </c>
     </row>
     <row r="16" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="18" t="s">
         <v>37</v>
       </c>
@@ -2688,8 +2786,8 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="18" t="s">
         <v>54</v>
       </c>
@@ -2706,10 +2804,10 @@
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:21" ht="99" x14ac:dyDescent="0.3">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="87" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2738,8 +2836,8 @@
       </c>
     </row>
     <row r="19" spans="2:21" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="4" t="s">
         <v>47</v>
       </c>
@@ -2766,8 +2864,8 @@
       </c>
     </row>
     <row r="20" spans="2:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
@@ -2786,10 +2884,10 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:21" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="86" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="23" t="s">
@@ -2816,8 +2914,8 @@
       </c>
     </row>
     <row r="22" spans="2:21" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="23" t="s">
         <v>58</v>
       </c>
@@ -2834,8 +2932,8 @@
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="2:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="23" t="s">
         <v>60</v>
       </c>
@@ -2852,10 +2950,10 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="2:21" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="79" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="39" t="s">
@@ -2882,8 +2980,8 @@
       </c>
     </row>
     <row r="25" spans="2:21" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="66"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="39" t="s">
         <v>98</v>
       </c>
@@ -2908,8 +3006,8 @@
       </c>
     </row>
     <row r="26" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="39" t="s">
         <v>99</v>
       </c>
@@ -2965,82 +3063,177 @@
       </c>
     </row>
     <row r="28" spans="2:21" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="89" t="s">
+      <c r="F28" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="90" t="s">
+      <c r="G28" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="M28" s="95" t="s">
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="M28" s="73" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="90" t="s">
+      <c r="G29" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="M29" s="95" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="M29" s="73" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="92"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="89" t="s">
+      <c r="B30" s="102"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="E30" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="90" t="s">
+      <c r="G30" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="89" t="s">
+      <c r="H30" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="89"/>
-      <c r="M30" s="95" t="s">
+      <c r="I30" s="71"/>
+      <c r="M30" s="73" t="s">
         <v>156</v>
       </c>
     </row>
+    <row r="31" spans="2:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="102"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="95"/>
+      <c r="N32" s="101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="95"/>
+      <c r="N33" s="101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="N34" s="101" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
+  <mergeCells count="16">
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C4:C7"/>
@@ -3126,10 +3319,10 @@
       <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -3145,10 +3338,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="46"/>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
     </row>
@@ -3156,10 +3349,10 @@
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="82"/>
+      <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>

--- a/Project/doc/info/1St_Project_4조_요구명세서.xlsx
+++ b/Project/doc/info/1St_Project_4조_요구명세서.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="172">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,14 +203,6 @@
   </si>
   <si>
     <t>상세 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 수행 완료 버튼으로 제어 가능하게 구현
-- 완료 버튼 클릭 시 수행 완료 처리
-- 처리 후 리스트 페이지로 이동
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1479,12 +1471,27 @@
     <t>COMMON04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0421 edit
+고객 협의 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 수행완료/취소 버튼으로 제어 가능하게 구현
+- 완료/취소 버튼 클릭 시 수행 완료 처리
+- 처리 후 리스트 페이지로 이동
+- 수행 미완료 상태일땐 '수행완료'
+  ,수행 완료상태일땐 '수행취소' 로 표시
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,15 +1580,6 @@
       <color rgb="FF2549FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF2549FF"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1957,39 +1955,39 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,98 +1997,98 @@
     <xf numFmtId="49" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2417,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2462,10 +2460,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="231" x14ac:dyDescent="0.3">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="88" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2478,53 +2476,53 @@
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>131</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="51"/>
       <c r="K5" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2540,12 +2538,12 @@
       <c r="H6" s="9"/>
       <c r="I6" s="7"/>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2561,61 +2559,61 @@
       <c r="H7" s="9"/>
       <c r="I7" s="7"/>
       <c r="K7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="29"/>
       <c r="K8" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="67" t="s">
+      <c r="G9" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="67"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="63"/>
       <c r="K9" s="43"/>
       <c r="L9" s="58"/>
-      <c r="M9" s="73" t="s">
-        <v>156</v>
+      <c r="M9" s="69" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="99" x14ac:dyDescent="0.3">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="90" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -2628,45 +2626,49 @@
         <v>31</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="132" x14ac:dyDescent="0.3">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="59" t="s">
-        <v>39</v>
+      <c r="G11" s="103" t="s">
+        <v>171</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="12"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="75" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
@@ -2680,16 +2682,16 @@
         <v>26</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="12"/>
       <c r="L12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="15" t="s">
         <v>20</v>
       </c>
@@ -2706,10 +2708,10 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="94" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -2722,24 +2724,24 @@
         <v>31</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="18" t="s">
         <v>35</v>
       </c>
@@ -2750,24 +2752,24 @@
         <v>36</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K15" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="66" x14ac:dyDescent="0.3">
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="18" t="s">
         <v>37</v>
       </c>
@@ -2778,96 +2780,96 @@
         <v>38</v>
       </c>
       <c r="G16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="2:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:21" ht="99" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="66" x14ac:dyDescent="0.3">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>7</v>
@@ -2876,66 +2878,66 @@
         <v>22</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:21" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="D21" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I21" s="23"/>
       <c r="L21" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="2:21" ht="66" x14ac:dyDescent="0.3">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>32</v>
@@ -2944,298 +2946,292 @@
         <v>38</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="2:21" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>97</v>
-      </c>
       <c r="E24" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I24" s="54"/>
       <c r="K24" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L24" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="77"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I25" s="54"/>
       <c r="K25" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L25" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="K26" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L26" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>69</v>
-      </c>
       <c r="D27" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>92</v>
-      </c>
       <c r="H27" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" s="41"/>
       <c r="K27" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L27" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="D28" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="E28" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="F28" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="M28" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="M28" s="73" t="s">
+    </row>
+    <row r="29" spans="2:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="M29" s="69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="80"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="67"/>
+      <c r="M30" s="69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="80"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="76" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="M29" s="73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="102"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="I30" s="71"/>
-      <c r="M30" s="73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="102"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="95" t="s">
+      <c r="D32" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="96" t="s">
+      <c r="F32" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="98" t="s">
+      <c r="G32" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="71"/>
+      <c r="N32" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="96" t="s">
+      <c r="E33" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="95"/>
-      <c r="N32" s="101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="95" t="s">
+      <c r="I33" s="71"/>
+      <c r="N33" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="95" t="s">
+      <c r="E34" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="N34" s="75" t="s">
         <v>168</v>
-      </c>
-      <c r="G33" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="95"/>
-      <c r="N33" s="101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="N34" s="101" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B10:B13"/>
@@ -3246,6 +3242,12 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3269,22 +3271,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3311,7 +3313,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -3319,17 +3321,17 @@
       <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="91"/>
+      <c r="B4" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="97"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -3338,10 +3340,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="46"/>
-      <c r="C6" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="92"/>
+      <c r="C6" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="98"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
     </row>
@@ -3349,10 +3351,10 @@
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
-      <c r="E7" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="93"/>
+      <c r="E7" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="46"/>
@@ -3360,7 +3362,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3515,85 +3517,85 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
